--- a/biology/Médecine/Francis_Giraud/Francis_Giraud.xlsx
+++ b/biology/Médecine/Francis_Giraud/Francis_Giraud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Francis Giraud, né le 4 juillet 1932 à Marseille (Bouches-du-Rhône) et mort le 23 octobre 2010 dans le 4e arrondissement de Marseille[1], est un médecin, professeur d'université et homme politique français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Giraud, né le 4 juillet 1932 à Marseille (Bouches-du-Rhône) et mort le 23 octobre 2010 dans le 4e arrondissement de Marseille, est un médecin, professeur d'université et homme politique français.
 </t>
         </is>
       </c>
@@ -511,17 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Giraud est le fils de Paul Giraud, professeur de médecine, et de Marie-Louise Jauffret.
 Élève au pensionnat du Sacré-Cœur, il suit ses études à la Faculté de médecine de Marseille. 
-Médecin et scientifique
-Francis Giraud devient médecin pédiatre à l'Hôpital Nord, puis chef de service à l'Hôpital de la Timone à Marseille. En parallèle il crée et développe le laboratoire de génétique médicale Inserm associé au CHU de Marseille. Enfin, il est professeur à la faculté de médecine de Marseille.
-Carrière politique
-Francis Giraud devient maire de Roquefort-la-Bédoule en 1983, puis est réélu quatre fois sous l'étiquette RPR et UMP, la liste qu'il conduit l'ayant emporté dès le premier tour lors des élections municipales de 2008[2].
-Élu sénateur des Bouches-du-Rhône le 27 septembre 1998 au scrutin proportionnel[3], il est membre de l'Office parlementaire d'évaluation des choix scientifiques et technologiques de 2002 à 2004[4] et ne se représente pas en 2008. 
-En 2007, il dépose une proposition de loi relative aux personnels enseignants de médecine générale cosignée entre autres par le sénateur Yves Fréville, déposée le 6 novembre 2007, adoptée le 12 décembre 2007, promulguée le 9 février 2008[5].
-Vice-président de la communauté urbaine Marseille Provence Métropole, dont il avait contribué à la création[6], il démissionne de son mandat de maire en septembre 2009, restant simple conseiller municipal. Francis Giraud meurt le 23 octobre 2010, des suites d'un cancer du pancréas[6].
 </t>
         </is>
       </c>
@@ -547,13 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Médecin et scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Giraud devient médecin pédiatre à l'Hôpital Nord, puis chef de service à l'Hôpital de la Timone à Marseille. En parallèle il crée et développe le laboratoire de génétique médicale Inserm associé au CHU de Marseille. Enfin, il est professeur à la faculté de médecine de Marseille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Francis_Giraud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Giraud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francis Giraud devient maire de Roquefort-la-Bédoule en 1983, puis est réélu quatre fois sous l'étiquette RPR et UMP, la liste qu'il conduit l'ayant emporté dès le premier tour lors des élections municipales de 2008.
+Élu sénateur des Bouches-du-Rhône le 27 septembre 1998 au scrutin proportionnel, il est membre de l'Office parlementaire d'évaluation des choix scientifiques et technologiques de 2002 à 2004 et ne se représente pas en 2008. 
+En 2007, il dépose une proposition de loi relative aux personnels enseignants de médecine générale cosignée entre autres par le sénateur Yves Fréville, déposée le 6 novembre 2007, adoptée le 12 décembre 2007, promulguée le 9 février 2008.
+Vice-président de la communauté urbaine Marseille Provence Métropole, dont il avait contribué à la création, il démissionne de son mandat de maire en septembre 2009, restant simple conseiller municipal. Francis Giraud meurt le 23 octobre 2010, des suites d'un cancer du pancréas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Francis_Giraud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Francis_Giraud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur le 12 avril 2009, chevalier le 23 mars 1991 [7].
- Commandeur de l'ordre des Palmes académiques (1994)[8]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur le 12 avril 2009, chevalier le 23 mars 1991 .
+ Commandeur de l'ordre des Palmes académiques (1994)</t>
         </is>
       </c>
     </row>
